--- a/biology/Écologie/Danielle_Claar/Danielle_Claar.xlsx
+++ b/biology/Écologie/Danielle_Claar/Danielle_Claar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danielle Claar est une scientifique spécialiste du monde marin, dont les recherches ont notamment porté sur l'effet de l'événement El Niño de 2014-2016 (en) sur les symbiotes et les parasites des coraux.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle étudie les sciences marines à l'Université d'Hawaï à Hilo[1], puis obtient un doctorat à l'Université de Victoria au Canada[2]. Après son doctorat, elle rejoint le Wood Lab de l'Université de Washington à Seattle en tant que boursière post-doctorante à la NOAA Climate and Global Change.
-Plus précisément, ses sujets de recherche en doctorat de 2013 à 2018 à l'Université de Victoria au Canada portent sur la symbiose des coraux lors de l'événement El Niño de 2015/2016[3],[4],[1]. Sa thèse « Coral Symbioses Under Stress: Spatial and Temporal Dynamics of Coral-Symbiodinium Interactions » lui vaut la médaille d'or du Gouverneur général du Canada pour l'excellence académique[5],[6],[7]. Au cours de ses études doctorales, elle met à profit sa formation de plongeuse scientifique pour effectuer des travaux de terrain sur l'île de Kiritimati dans l'océan Pacifique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle étudie les sciences marines à l'Université d'Hawaï à Hilo, puis obtient un doctorat à l'Université de Victoria au Canada. Après son doctorat, elle rejoint le Wood Lab de l'Université de Washington à Seattle en tant que boursière post-doctorante à la NOAA Climate and Global Change.
+Plus précisément, ses sujets de recherche en doctorat de 2013 à 2018 à l'Université de Victoria au Canada portent sur la symbiose des coraux lors de l'événement El Niño de 2015/2016. Sa thèse « Coral Symbioses Under Stress: Spatial and Temporal Dynamics of Coral-Symbiodinium Interactions » lui vaut la médaille d'or du Gouverneur général du Canada pour l'excellence académique. Au cours de ses études doctorales, elle met à profit sa formation de plongeuse scientifique pour effectuer des travaux de terrain sur l'île de Kiritimati dans l'océan Pacifique.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Travail</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après son doctorat, elle accepte une bourse postdoctorale de la NOAA Climate and Global Change (C&amp;GC) pour étudier « les moteurs climatiques à grande échelle du parasitisme chez les poissons des récifs coralliens » à l'Université de Washington, Seattle[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après son doctorat, elle accepte une bourse postdoctorale de la NOAA Climate and Global Change (C&amp;GC) pour étudier « les moteurs climatiques à grande échelle du parasitisme chez les poissons des récifs coralliens » à l'Université de Washington, Seattle,.
 </t>
         </is>
       </c>
